--- a/data/trans_camb/P28A_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P28A_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,45</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 9,41</t>
+          <t>-11,3; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -1,02</t>
+          <t>-11,3; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 6,44</t>
+          <t>-5,64; 10,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 17,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 8,13</t>
+          <t>-6,12; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -1,8</t>
+          <t>-6,12; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 3,34</t>
+          <t>-2,49; 4,81</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-26,07%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-84,59%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-54,43%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-16,17%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-88,1%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-60,66%</t>
+          <t>82,83%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 260,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-85,48; 265,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 181,41</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,36</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,58</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,11</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,62</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>-5,24</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 6,09</t>
+          <t>-6,41; 5,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,13; -3,23</t>
+          <t>-11,84; -1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -2,73</t>
+          <t>-12,28; -2,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 3,38</t>
+          <t>-6,21; 3,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -5,35</t>
+          <t>-9,1; -1,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -0,5</t>
+          <t>-9,05; 0,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 3,02</t>
+          <t>-4,64; 3,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,62; -5,97</t>
+          <t>-8,59; -2,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,42; -4,06</t>
+          <t>-8,54; -2,3</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,82%</t>
+          <t>-1,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-76,58%</t>
+          <t>-80,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-71,46%</t>
+          <t>-85,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-26,11%</t>
+          <t>-19,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-87,73%</t>
+          <t>-77,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-58,92%</t>
+          <t>-63,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,42%</t>
+          <t>-9,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-81,16%</t>
+          <t>-79,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-66,76%</t>
+          <t>-76,25%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,25; 71,86</t>
+          <t>-57,61; 101,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-94,95; -22,49</t>
+          <t>-100,0; -5,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-91,4; -20,74</t>
+          <t>-100,0; -12,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,96; 39,17</t>
+          <t>-76,65; 105,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -48,45</t>
+          <t>-100,0; 16,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,74; 4,44</t>
+          <t>-100,0; 41,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,59; 34,75</t>
+          <t>-52,62; 60,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-93,77; -55,4</t>
+          <t>-93,43; -37,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-83,26; -35,16</t>
+          <t>-93,62; -28,82</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,31</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-14,39</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,24</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-11,61</t>
+          <t>-7,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,56</t>
+          <t>-6,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 1,96</t>
+          <t>-11,8; 2,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,53; -7,95</t>
+          <t>-17,42; -5,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,67; -8,19</t>
+          <t>-16,24; -2,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 6,3</t>
+          <t>-5,61; 4,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -4,13</t>
+          <t>-10,24; -2,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,4; -1,06</t>
+          <t>-9,27; -0,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 1,62</t>
+          <t>-6,43; 2,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,68; -7,33</t>
+          <t>-11,75; -4,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -6,3</t>
+          <t>-10,15; -2,6</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-37,43%</t>
+          <t>-38,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-85,33%</t>
+          <t>-93,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-84,47%</t>
+          <t>-77,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,35%</t>
+          <t>-4,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-82,48%</t>
+          <t>-82,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-63,66%</t>
+          <t>-69,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-24,17%</t>
+          <t>-23,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-84,1%</t>
+          <t>-88,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-76,49%</t>
+          <t>-73,7%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,56; 20,58</t>
+          <t>-74,6; 39,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-96,81; -47,93</t>
+          <t>-100,0; -56,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-95,59; -58,29</t>
+          <t>-95,24; -10,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 83,06</t>
+          <t>-64,16; 109,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-95,56; -38,9</t>
+          <t>-100,0; -13,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-89,39; -4,36</t>
+          <t>-94,45; 39,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,46; 13,97</t>
+          <t>-57,99; 39,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-93,9; -59,89</t>
+          <t>-96,88; -62,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-89,78; -52,25</t>
+          <t>-91,05; -37,04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,09; -7,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,39; -6,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 3,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -5,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -2,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 1,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -7,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -5,68</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-22,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-81,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-75,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-85,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-62,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-83,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-70,63%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 18,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-91,9; -58,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-88,02; -51,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,61; 42,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-94,81; -67,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-82,02; -26,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 11,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-91,24; -67,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-81,88; -53,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,06</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-7,26</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,22</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-4,3</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-5,68</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-4,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 2,34</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-10,88; -4,03</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-10,02; -2,84</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 2,52</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; -2,11</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; -1,08</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 1,2</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; -3,96</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; -2,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-24,86%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-87,61%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-75,03%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-12,09%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-79,85%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-66,94%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-19,47%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-84,3%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-71,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-58,26; 39,23</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-97,32; -58,18</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-91,71; -31,46</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-52,85; 68,36</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-94,56; -37,55</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-88,79; -17,8</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-47,03; 22,38</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-94,67; -68,96</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-86,86; -47,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
